--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_template.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF42319-0A2E-45F3-AF30-7F79DD995566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D91C43-66D6-4EC8-ABD9-7D029F725521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="885" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="236">
   <si>
     <t>7F</t>
   </si>
@@ -594,9 +594,6 @@
     <t>Selected_Service</t>
   </si>
   <si>
-    <t xml:space="preserve">Time_Out </t>
-  </si>
-  <si>
     <t>CanTP</t>
   </si>
   <si>
@@ -739,6 +736,24 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Valid Value</t>
+  </si>
+  <si>
+    <t>Invalid Value</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>DTC ID</t>
+  </si>
+  <si>
+    <t>d78687</t>
   </si>
 </sst>
 </file>
@@ -1267,17 +1282,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" style="21" customWidth="1"/>
     <col min="2" max="2" width="56" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12" style="21" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -1288,7 +1302,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1298,8 +1312,8 @@
       <c r="B2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="22">
-        <v>500</v>
+      <c r="C2" s="22" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1309,9 +1323,7 @@
       <c r="B3" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="22">
-        <v>500</v>
-      </c>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -1320,9 +1332,7 @@
       <c r="B4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="22">
-        <v>500</v>
-      </c>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
@@ -1331,9 +1341,7 @@
       <c r="B5" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="22">
-        <v>500</v>
-      </c>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
@@ -1365,114 +1373,99 @@
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>178</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>179</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="20"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="20"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="20"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="22"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="20"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="20"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>64</v>
       </c>
@@ -1480,7 +1473,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>180</v>
       </c>
@@ -1488,25 +1481,25 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>77</v>
@@ -1610,7 +1603,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>22</v>
@@ -1721,7 +1714,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>39</v>
@@ -1761,20 +1754,20 @@
         <v>22</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>88</v>
@@ -1816,7 +1809,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>22</v>
@@ -1847,7 +1840,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>86</v>
@@ -1856,7 +1849,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -1887,7 +1880,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -1918,13 +1911,13 @@
         <v>85</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -1943,19 +1936,19 @@
       </c>
       <c r="L8" s="7"/>
       <c r="N8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="Q8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -1974,19 +1967,19 @@
       </c>
       <c r="L9" s="7"/>
       <c r="N9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -2005,19 +1998,19 @@
       </c>
       <c r="L10" s="7"/>
       <c r="N10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -2036,19 +2029,19 @@
       </c>
       <c r="L11" s="7"/>
       <c r="N11" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -2067,19 +2060,19 @@
       </c>
       <c r="L12" s="7"/>
       <c r="N12" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -2098,19 +2091,19 @@
       </c>
       <c r="L13" s="7"/>
       <c r="N13" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -2129,19 +2122,19 @@
       </c>
       <c r="L14" s="7"/>
       <c r="N14" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -2160,19 +2153,19 @@
       </c>
       <c r="L15" s="7"/>
       <c r="N15" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
@@ -2338,7 +2331,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>39</v>
@@ -2361,7 +2354,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
@@ -2387,14 +2380,14 @@
         <v>37</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>88</v>
@@ -2414,7 +2407,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -2434,7 +2427,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>86</v>
@@ -2443,7 +2436,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>22</v>
@@ -2483,7 +2476,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -2507,7 +2500,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>86</v>
@@ -2516,7 +2509,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -2549,13 +2542,13 @@
         <v>85</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -2574,19 +2567,19 @@
       </c>
       <c r="L8" s="7"/>
       <c r="N8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="Q8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -2605,19 +2598,19 @@
       </c>
       <c r="L9" s="7"/>
       <c r="N9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -2636,19 +2629,19 @@
       </c>
       <c r="L10" s="7"/>
       <c r="N10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -2667,19 +2660,19 @@
       </c>
       <c r="L11" s="7"/>
       <c r="N11" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -2698,19 +2691,19 @@
       </c>
       <c r="L12" s="7"/>
       <c r="N12" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -2729,19 +2722,19 @@
       </c>
       <c r="L13" s="7"/>
       <c r="N13" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -2760,19 +2753,19 @@
       </c>
       <c r="L14" s="7"/>
       <c r="N14" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -2791,19 +2784,19 @@
       </c>
       <c r="L15" s="7"/>
       <c r="N15" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
@@ -2969,7 +2962,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>39</v>
@@ -2992,7 +2985,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
@@ -3018,14 +3011,14 @@
         <v>37</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>88</v>
@@ -3045,7 +3038,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -3065,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>86</v>
@@ -3074,7 +3067,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>22</v>
@@ -3114,7 +3107,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -3138,7 +3131,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>86</v>
@@ -3147,7 +3140,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -3180,13 +3173,13 @@
         <v>85</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -3205,19 +3198,19 @@
       </c>
       <c r="L8" s="7"/>
       <c r="N8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="Q8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -3236,19 +3229,19 @@
       </c>
       <c r="L9" s="7"/>
       <c r="N9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -3267,19 +3260,19 @@
       </c>
       <c r="L10" s="7"/>
       <c r="N10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -3298,19 +3291,19 @@
       </c>
       <c r="L11" s="7"/>
       <c r="N11" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -3329,19 +3322,19 @@
       </c>
       <c r="L12" s="7"/>
       <c r="N12" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -3360,19 +3353,19 @@
       </c>
       <c r="L13" s="7"/>
       <c r="N13" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -3391,19 +3384,19 @@
       </c>
       <c r="L14" s="7"/>
       <c r="N14" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -3422,19 +3415,19 @@
       </c>
       <c r="L15" s="7"/>
       <c r="N15" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
@@ -3600,7 +3593,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>39</v>
@@ -3623,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
@@ -3649,14 +3642,14 @@
         <v>37</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>88</v>
@@ -3676,7 +3669,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="s">
@@ -3696,7 +3689,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>86</v>
@@ -3705,7 +3698,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>22</v>
@@ -3745,7 +3738,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -3769,7 +3762,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>86</v>
@@ -3778,7 +3771,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -3811,13 +3804,13 @@
         <v>85</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -3836,19 +3829,19 @@
       </c>
       <c r="L8" s="7"/>
       <c r="N8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="Q8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -3867,19 +3860,19 @@
       </c>
       <c r="L9" s="7"/>
       <c r="N9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -3898,19 +3891,19 @@
       </c>
       <c r="L10" s="7"/>
       <c r="N10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -3929,19 +3922,19 @@
       </c>
       <c r="L11" s="7"/>
       <c r="N11" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -3960,19 +3953,19 @@
       </c>
       <c r="L12" s="7"/>
       <c r="N12" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -3991,19 +3984,19 @@
       </c>
       <c r="L13" s="7"/>
       <c r="N13" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -4022,19 +4015,19 @@
       </c>
       <c r="L14" s="7"/>
       <c r="N14" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -4053,19 +4046,19 @@
       </c>
       <c r="L15" s="7"/>
       <c r="N15" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
@@ -4231,7 +4224,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>39</v>
@@ -4277,14 +4270,14 @@
         <v>37</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>88</v>
@@ -4330,7 +4323,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>22</v>
@@ -4373,7 +4366,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>86</v>
@@ -4382,7 +4375,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -4423,7 +4416,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -4439,7 +4432,7 @@
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
       <c r="F7" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>22</v>
@@ -4464,13 +4457,13 @@
         <v>85</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -4488,22 +4481,22 @@
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="Q8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -4524,19 +4517,19 @@
         <v>14</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -4557,19 +4550,19 @@
         <v>1</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -4590,19 +4583,19 @@
         <v>15</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -4623,19 +4616,19 @@
         <v>16</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -4656,19 +4649,19 @@
         <v>17</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -4689,19 +4682,19 @@
         <v>18</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -4722,19 +4715,19 @@
         <v>37</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
@@ -4893,7 +4886,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>39</v>
@@ -4933,20 +4926,20 @@
         <v>22</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>88</v>
@@ -4992,7 +4985,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>22</v>
@@ -5027,7 +5020,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>86</v>
@@ -5036,7 +5029,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -5069,7 +5062,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -5100,13 +5093,13 @@
         <v>85</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -5125,19 +5118,19 @@
       </c>
       <c r="L8" s="7"/>
       <c r="N8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="Q8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -5156,19 +5149,19 @@
       </c>
       <c r="L9" s="7"/>
       <c r="N9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -5187,19 +5180,19 @@
       </c>
       <c r="L10" s="7"/>
       <c r="N10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -5218,19 +5211,19 @@
       </c>
       <c r="L11" s="7"/>
       <c r="N11" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -5249,19 +5242,19 @@
       </c>
       <c r="L12" s="7"/>
       <c r="N12" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -5280,19 +5273,19 @@
       </c>
       <c r="L13" s="7"/>
       <c r="N13" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -5311,19 +5304,19 @@
       </c>
       <c r="L14" s="7"/>
       <c r="N14" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -5342,19 +5335,19 @@
       </c>
       <c r="L15" s="7"/>
       <c r="N15" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
@@ -5520,7 +5513,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>39</v>
@@ -5560,20 +5553,20 @@
         <v>22</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>88</v>
@@ -5615,7 +5608,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>22</v>
@@ -5646,7 +5639,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>86</v>
@@ -5655,7 +5648,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -5686,7 +5679,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -5717,13 +5710,13 @@
         <v>85</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -5742,19 +5735,19 @@
       </c>
       <c r="L8" s="7"/>
       <c r="N8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="Q8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -5773,19 +5766,19 @@
       </c>
       <c r="L9" s="7"/>
       <c r="N9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -5804,19 +5797,19 @@
       </c>
       <c r="L10" s="7"/>
       <c r="N10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -5835,19 +5828,19 @@
       </c>
       <c r="L11" s="7"/>
       <c r="N11" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -5866,19 +5859,19 @@
       </c>
       <c r="L12" s="7"/>
       <c r="N12" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -5897,19 +5890,19 @@
       </c>
       <c r="L13" s="7"/>
       <c r="N13" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -5928,19 +5921,19 @@
       </c>
       <c r="L14" s="7"/>
       <c r="N14" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -5959,19 +5952,19 @@
       </c>
       <c r="L15" s="7"/>
       <c r="N15" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
@@ -6139,7 +6132,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>39</v>
@@ -6181,20 +6174,20 @@
         <v>22</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>88</v>
@@ -6242,7 +6235,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>22</v>
@@ -6279,7 +6272,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>86</v>
@@ -6288,7 +6281,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -6327,7 +6320,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -6364,13 +6357,13 @@
         <v>85</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -6390,19 +6383,19 @@
       </c>
       <c r="L8" s="7"/>
       <c r="N8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="Q8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -6423,19 +6416,19 @@
       </c>
       <c r="L9" s="7"/>
       <c r="N9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -6456,19 +6449,19 @@
       </c>
       <c r="L10" s="7"/>
       <c r="N10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -6489,19 +6482,19 @@
       </c>
       <c r="L11" s="7"/>
       <c r="N11" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -6522,19 +6515,19 @@
       </c>
       <c r="L12" s="7"/>
       <c r="N12" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -6555,19 +6548,19 @@
       </c>
       <c r="L13" s="7"/>
       <c r="N13" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -6588,19 +6581,19 @@
       </c>
       <c r="L14" s="7"/>
       <c r="N14" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -6621,19 +6614,19 @@
       </c>
       <c r="L15" s="7"/>
       <c r="N15" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>
@@ -6708,10 +6701,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AD5"/>
+    <sheetView topLeftCell="J1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6733,14 +6726,16 @@
     <col min="19" max="20" width="10.7109375" style="6" customWidth="1"/>
     <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
     <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
-    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="23" max="23" width="37.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.85546875" style="6" customWidth="1"/>
     <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
     <col min="29" max="29" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>21</v>
       </c>
@@ -6771,12 +6766,12 @@
         <v>87</v>
       </c>
       <c r="V1" s="30"/>
-      <c r="AC1" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD1" s="30"/>
-    </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X1" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y1" s="30"/>
+    </row>
+    <row r="2" spans="1:25" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
@@ -6819,7 +6814,7 @@
         <v>93</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>39</v>
@@ -6833,14 +6828,14 @@
       <c r="V2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD2" s="10" t="s">
+      <c r="X2" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>98</v>
       </c>
@@ -6874,20 +6869,20 @@
         <v>22</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q3" s="28"/>
       <c r="R3" s="7" t="s">
         <v>85</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>88</v>
@@ -6898,14 +6893,14 @@
       <c r="W3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>99</v>
       </c>
@@ -6948,7 +6943,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>22</v>
@@ -6965,14 +6960,14 @@
       <c r="W4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>100</v>
       </c>
@@ -7006,7 +7001,7 @@
         <v>23</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>86</v>
@@ -7015,7 +7010,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>22</v>
@@ -7025,14 +7020,14 @@
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
-      <c r="AC5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AD5" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>101</v>
       </c>
@@ -7075,7 +7070,7 @@
         <v>23</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>22</v>
@@ -7086,7 +7081,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>102</v>
       </c>
@@ -7127,18 +7122,18 @@
         <v>85</v>
       </c>
       <c r="Q7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>103</v>
       </c>
@@ -7173,24 +7168,24 @@
       </c>
       <c r="M8" s="7"/>
       <c r="O8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q8" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="Q8" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="R8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>104</v>
       </c>
@@ -7225,24 +7220,24 @@
       </c>
       <c r="M9" s="7"/>
       <c r="O9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>85</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
     </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>105</v>
       </c>
@@ -7277,24 +7272,24 @@
       </c>
       <c r="M10" s="7"/>
       <c r="O10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>106</v>
       </c>
@@ -7329,24 +7324,24 @@
       </c>
       <c r="M11" s="7"/>
       <c r="O11" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>107</v>
       </c>
@@ -7379,24 +7374,24 @@
       </c>
       <c r="M12" s="7"/>
       <c r="O12" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>108</v>
       </c>
@@ -7429,24 +7424,24 @@
       </c>
       <c r="M13" s="7"/>
       <c r="O13" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>109</v>
       </c>
@@ -7479,24 +7474,24 @@
       </c>
       <c r="M14" s="7"/>
       <c r="O14" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>110</v>
       </c>
@@ -7531,24 +7526,24 @@
       </c>
       <c r="M15" s="7"/>
       <c r="O15" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>111</v>
       </c>
@@ -8196,7 +8191,7 @@
   <mergeCells count="6">
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="O1:S1"/>
-    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
@@ -8210,10 +8205,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AD111"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A24"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8221,64 +8216,67 @@
     <col min="1" max="1" width="48.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="17" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="18.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
-    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="4.85546875" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="5" width="36.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="6" customWidth="1"/>
+    <col min="8" max="10" width="18.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
+    <col min="16" max="17" width="18.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
+    <col min="20" max="21" width="10.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="6" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4.85546875" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="30"/>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="29" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="O1" s="29" t="s">
+      <c r="N1" s="30"/>
+      <c r="P1" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
       <c r="S1" s="30"/>
-      <c r="U1" s="29" t="s">
+      <c r="T1" s="30"/>
+      <c r="V1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="30"/>
-      <c r="AC1" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD1" s="30"/>
-    </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W1" s="30"/>
+      <c r="Y1" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z1" s="30"/>
+    </row>
+    <row r="2" spans="1:26" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
@@ -8289,65 +8287,68 @@
         <v>96</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="R2" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>207</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>22</v>
@@ -8355,64 +8356,67 @@
       <c r="D3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E3" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="Q3" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="R3" s="28"/>
       <c r="S3" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="U3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>22</v>
@@ -8420,66 +8424,69 @@
       <c r="D4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E4" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="Q4" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>225</v>
       </c>
       <c r="S4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>22</v>
@@ -8487,217 +8494,229 @@
       <c r="D5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E5" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="9" t="s">
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="N5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="Q5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>22</v>
+      <c r="R5" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="S5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="7"/>
-      <c r="AC5" s="9" t="s">
+      <c r="V5" s="9"/>
+      <c r="W5" s="7"/>
+      <c r="Y5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AD5" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>212</v>
-      </c>
       <c r="B7" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="O7" s="9" t="s">
+      <c r="N7" s="7"/>
+      <c r="P7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="P7" s="28" t="s">
-        <v>85</v>
-      </c>
       <c r="Q7" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>85</v>
+        <v>85</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>228</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="P8" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>215</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="O8" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>216</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>22</v>
@@ -8705,103 +8724,109 @@
       <c r="D9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E9" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="O9" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>223</v>
+      <c r="N9" s="7"/>
+      <c r="P9" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>85</v>
+        <v>222</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>224</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="O10" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>223</v>
+      <c r="N10" s="7"/>
+      <c r="P10" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>22</v>
@@ -8809,51 +8834,54 @@
       <c r="D11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E11" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="9" t="s">
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="O11" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>223</v>
+      <c r="N11" s="7"/>
+      <c r="P11" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>22</v>
@@ -8861,51 +8889,54 @@
       <c r="D12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E12" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="9" t="s">
+      <c r="K12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="O12" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>223</v>
+      <c r="N12" s="7"/>
+      <c r="P12" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="U12" s="9"/>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>22</v>
@@ -8913,382 +8944,409 @@
       <c r="D13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E13" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="9" t="s">
+      <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="O13" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>223</v>
+      <c r="N13" s="7"/>
+      <c r="P13" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="U13" s="9"/>
-      <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V13" s="9"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="9" t="s">
+      <c r="K14" s="7"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="O14" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="P14" s="28" t="s">
-        <v>223</v>
+      <c r="N14" s="7"/>
+      <c r="P14" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="U14" s="9"/>
-      <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V14" s="9"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="7"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="O15" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>223</v>
+      <c r="N15" s="7"/>
+      <c r="P15" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="U15" s="9"/>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V15" s="9"/>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="28"/>
+      <c r="N16" s="7"/>
+      <c r="P16" s="9"/>
       <c r="Q16" s="28"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="28"/>
       <c r="S16" s="7"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="7"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="9" t="s">
+      <c r="K17" s="7"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="28"/>
+      <c r="N17" s="7"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="28"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="28"/>
       <c r="S17" s="7"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="7"/>
-    </row>
-    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="7"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="16"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="16"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="16"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="16"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="16"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="16"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="16"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="16"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="16"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="16"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="16"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="16"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="16"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="16"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="16"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="16"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="16"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="16"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="16"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="16"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-    </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9298,12 +9356,12 @@
     <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9402,10 +9460,10 @@
         <v>10</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>84</v>
@@ -9414,7 +9472,7 @@
         <v>93</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>39</v>
@@ -9463,14 +9521,14 @@
         <v>37</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q3" s="28"/>
       <c r="R3" s="7" t="s">
         <v>85</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>88</v>
@@ -9507,10 +9565,10 @@
         <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>86</v>
@@ -9519,7 +9577,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>22</v>
@@ -9562,7 +9620,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>22</v>
@@ -9586,10 +9644,10 @@
         <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>86</v>
@@ -9598,7 +9656,7 @@
         <v>23</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>22</v>
@@ -9634,13 +9692,13 @@
         <v>85</v>
       </c>
       <c r="Q7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
@@ -9662,19 +9720,19 @@
         <v>16</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q8" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="Q8" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="R8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
@@ -9696,19 +9754,19 @@
         <v>18</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>85</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
@@ -9728,19 +9786,19 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="O10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
@@ -9760,19 +9818,19 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="O11" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
@@ -9792,19 +9850,19 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="O12" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
@@ -9824,19 +9882,19 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="O13" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
@@ -9856,19 +9914,19 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="O14" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
@@ -9888,19 +9946,19 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="O15" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="7"/>
@@ -9975,8 +10033,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:R17"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9985,7 +10043,7 @@
     <col min="2" max="2" width="16.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="67.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="67.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
     <col min="7" max="8" width="18.140625" style="6" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" style="6" customWidth="1"/>
@@ -10038,13 +10096,13 @@
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>39</v>
@@ -10076,7 +10134,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>39</v>
@@ -10105,7 +10163,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>80</v>
@@ -10130,14 +10188,14 @@
         <v>37</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>88</v>
@@ -10163,7 +10221,7 @@
         <v>85</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>47</v>
@@ -10182,7 +10240,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>86</v>
@@ -10191,7 +10249,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>22</v>
@@ -10223,7 +10281,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -10243,7 +10301,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -10264,7 +10322,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
@@ -10275,7 +10333,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>86</v>
@@ -10284,7 +10342,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -10301,7 +10359,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
@@ -10321,13 +10379,13 @@
         <v>85</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T7" s="9"/>
       <c r="U7" s="7"/>
@@ -10338,7 +10396,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
@@ -10352,19 +10410,19 @@
         <v>15</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="Q8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="7"/>
@@ -10375,7 +10433,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
@@ -10387,19 +10445,19 @@
       </c>
       <c r="L9" s="7"/>
       <c r="N9" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="7"/>
@@ -10420,19 +10478,19 @@
       </c>
       <c r="L10" s="7"/>
       <c r="N10" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="7"/>
@@ -10453,19 +10511,19 @@
       </c>
       <c r="L11" s="7"/>
       <c r="N11" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T11" s="9"/>
       <c r="U11" s="7"/>
@@ -10486,19 +10544,19 @@
       </c>
       <c r="L12" s="7"/>
       <c r="N12" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="7"/>
@@ -10519,19 +10577,19 @@
       </c>
       <c r="L13" s="7"/>
       <c r="N13" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="7"/>
@@ -10552,19 +10610,19 @@
       </c>
       <c r="L14" s="7"/>
       <c r="N14" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T14" s="9"/>
       <c r="U14" s="7"/>
@@ -10585,19 +10643,19 @@
       </c>
       <c r="L15" s="7"/>
       <c r="N15" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="7"/>

--- a/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_template.xlsx
+++ b/dcomtestcasegeneration/Source/dcom/bin/Debug/DB_Requirement/RequirementDB_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Source\dcom\bin\Debug\DB_Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D91C43-66D6-4EC8-ABD9-7D029F725521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D80DD3-1E25-422D-9AFE-C9AC0B0D76AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25845" yWindow="15" windowWidth="24855" windowHeight="15315" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -1282,8 +1282,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4131,8 +4131,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:R17"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4793,7 +4793,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:R17"/>
     </sheetView>
   </sheetViews>
@@ -6703,7 +6703,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
@@ -8207,7 +8207,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1:Z5"/>
     </sheetView>
   </sheetViews>
@@ -10033,7 +10033,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
